--- a/src/showbuild/xls/C suite.xlsx
+++ b/src/showbuild/xls/C suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="16455" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="16455" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t>Regency Suites Hotel</t>
   </si>
   <si>
-    <t>12/01/2018</t>
-  </si>
-  <si>
     <t>A_EventAdminDetails</t>
   </si>
   <si>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t>AddEventFacilities</t>
+  </si>
+  <si>
+    <t>1/5/2020</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -631,10 +631,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -655,10 +655,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +780,7 @@
         <v>19</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
@@ -903,7 +903,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="A3" sqref="A3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,26 +960,26 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>31</v>
+      <c r="A2" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>48</v>
@@ -999,27 +999,27 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>58</v>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>48</v>

--- a/src/showbuild/xls/C suite.xlsx
+++ b/src/showbuild/xls/C suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="16455" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="16455" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="SetupInventory" sheetId="4" r:id="rId4"/>
     <sheet name="AddEventFacilities" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t>TCID</t>
   </si>
@@ -113,21 +113,12 @@
     <t>Hotel Name</t>
   </si>
   <si>
-    <t>Anaheim Marriott</t>
-  </si>
-  <si>
     <t>Category 1</t>
   </si>
   <si>
     <t>Category 2</t>
   </si>
   <si>
-    <t>One Bed</t>
-  </si>
-  <si>
-    <t>Two Beds</t>
-  </si>
-  <si>
     <t>King Bed</t>
   </si>
   <si>
@@ -152,18 +143,12 @@
     <t>Category 1 Rates-4</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>200</t>
   </si>
   <si>
     <t>250</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
     <t>170</t>
   </si>
   <si>
@@ -221,7 +206,7 @@
     <t>AddEventFacilities</t>
   </si>
   <si>
-    <t>1/5/2020</t>
+    <t>9/10/2019</t>
   </si>
 </sst>
 </file>
@@ -278,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -294,9 +279,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
@@ -631,10 +613,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -643,10 +625,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -655,10 +637,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -667,10 +649,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -686,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +762,7 @@
         <v>19</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>26</v>
@@ -900,10 +882,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,34 +902,34 @@
         <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -961,37 +943,37 @@
     </row>
     <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>3</v>
@@ -999,85 +981,45 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
